--- a/焦煤/eta/1.焦煤_数据上传.xlsx
+++ b/焦煤/eta/1.焦煤_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/焦煤/eta/1.焦煤_数据上传.xlsx
+++ b/焦煤/eta/1.焦煤_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12255" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1165,7 +1165,7 @@
         <v>45765</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>317.88</v>
+        <v>321.74</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45765</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>210.97</v>
+        <v>216.16</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.1318042368298791</v>
+        <v>0.1276181250671138</v>
       </c>
       <c r="K4" s="17" t="n"/>
     </row>
@@ -1245,7 +1245,7 @@
         <v>45765</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>371.69</v>
+        <v>437.31</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45769</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>879.14</v>
+        <v>961.98</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45769</v>
       </c>
       <c r="F7" t="n">
-        <v>-441.45</v>
+        <v>-58.299</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.183430104605395</v>
+        <v>0.1824216847973738</v>
       </c>
     </row>
     <row r="8">
@@ -1363,7 +1363,7 @@
         <v>45773</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>1506.4</v>
+        <v>1750.6</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.03122153995207303</v>
+        <v>0.02820249205834239</v>
       </c>
     </row>
     <row r="9">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>317.88</v>
+        <v>321.74</v>
       </c>
       <c r="E3" s="3" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>210.97</v>
+        <v>216.16</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>371.69</v>
+        <v>437.31</v>
       </c>
       <c r="O3" s="3" t="n"/>
       <c r="P3" t="inlineStr">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>879.14</v>
+        <v>961.98</v>
       </c>
       <c r="T3" s="3" t="n"/>
       <c r="U3" t="inlineStr">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>-441.45</v>
+        <v>-58.299</v>
       </c>
       <c r="Y3" s="3" t="n"/>
       <c r="Z3" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>1506.4</v>
+        <v>1750.6</v>
       </c>
       <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="7" t="inlineStr">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>213.25</v>
+        <v>218.23</v>
       </c>
       <c r="H4" t="n">
         <v>312.95</v>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.4675263774912075</v>
+        <v>0.4340374833890849</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>872.52</v>
+        <v>880.37</v>
       </c>
       <c r="T4" s="3" t="n"/>
       <c r="U4" t="inlineStr">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>-452.97</v>
+        <v>-447.96</v>
       </c>
       <c r="W4" t="n">
         <v>-326.74</v>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>0.2786718767247279</v>
+        <v>0.2706045182605589</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>1540</v>
+        <v>1576</v>
       </c>
       <c r="AB4" t="n">
         <v>1628.3</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>0.05733766233766231</v>
+        <v>0.03318527918781723</v>
       </c>
       <c r="AE4" s="7" t="inlineStr">
         <is>
@@ -4883,15 +4883,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>309.3214416503906</v>
+        <v>313.160888671875</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>210.9657897949219</v>
+        <v>214.6031341552734</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>397.4736022949219</v>
+        <v>463.3009948730469</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -4908,11 +4908,11 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>-438.8422546386719</v>
+        <v>-62.46377563476562</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1448.703515</v>
+        <v>1699.58005</v>
       </c>
       <c r="S3" s="21" t="inlineStr">
         <is>
@@ -4946,15 +4946,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>314.1780700683594</v>
+        <v>315.7171325683594</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>210.9657897949219</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>406.4632263183594</v>
+        <v>472.2859802246094</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -4971,11 +4971,11 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>-436.8517456054688</v>
+        <v>-56.31479263305664</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1513.33038</v>
+        <v>1756.77451</v>
       </c>
       <c r="S4" s="21" t="inlineStr">
         <is>
@@ -5009,15 +5009,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>320.7181396484375</v>
+        <v>324.6387023925781</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>210.9657897949219</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>411.2037048339844</v>
+        <v>477.0311279296875</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -5034,11 +5034,11 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>-438.7493896484375</v>
+        <v>-54.12777709960938</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1545.526738</v>
+        <v>1795.49608</v>
       </c>
       <c r="S5" s="21" t="inlineStr">
         <is>
@@ -5072,15 +5072,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>322.2347717285156</v>
+        <v>325.4555969238281</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>210.9657897949219</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>397.2283935546875</v>
+        <v>463.0558776855469</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -5097,11 +5097,11 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>-441.4483642578125</v>
+        <v>-55.87294006347656</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1550.377512</v>
+        <v>1800.27917</v>
       </c>
       <c r="S6" s="21" t="inlineStr">
         <is>
@@ -5135,15 +5135,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>311.6483459472656</v>
+        <v>314.780517578125</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>210.9657897949219</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>392.1890563964844</v>
+        <v>458.0118408203125</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -5160,19 +5160,19 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>-442.7263488769531</v>
+        <v>-58.41470336914062</v>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1589.7696214</v>
+        <v>1600</v>
       </c>
       <c r="S7" s="21" t="inlineStr">
         <is>
@@ -5198,15 +5198,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>308.7029113769531</v>
+        <v>313.4793090820312</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>210.9657897949219</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -5214,28 +5214,31 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>366.8337097167969</v>
+        <v>432.6575927734375</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>2025/11/14</t>
         </is>
       </c>
+      <c r="L8" t="n">
+        <v>960.8000000000001</v>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>-444.4950561523438</v>
+        <v>-59.57389068603516</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025/10/18</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>1550</v>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1600</v>
       </c>
       <c r="S8" s="21" t="inlineStr">
         <is>
@@ -5261,15 +5264,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>318.875</v>
+        <v>324.0513000488281</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>210.9657897949219</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -5277,28 +5280,31 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>363.0423583984375</v>
+        <v>428.8712463378906</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>2025/11/13</t>
         </is>
       </c>
+      <c r="L9" t="n">
+        <v>969.3</v>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>-442.5394897460938</v>
+        <v>-61.22830200195312</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="S9" s="21" t="inlineStr">
         <is>
@@ -5324,15 +5330,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>320.2434387207031</v>
+        <v>325.6880187988281</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>208.1421051025391</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -5340,28 +5346,31 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>361.2144775390625</v>
+        <v>427.0433654785156</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>2025/11/12</t>
         </is>
       </c>
+      <c r="L10" t="n">
+        <v>969</v>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>-442.7059020996094</v>
+        <v>-59.11219024658203</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>1530</v>
+        <v>1600</v>
       </c>
       <c r="S10" s="21" t="inlineStr">
         <is>
@@ -5387,15 +5396,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>322.1936340332031</v>
+        <v>327.3724060058594</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>208.1421051025391</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -5403,28 +5412,31 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>369.8803405761719</v>
+        <v>435.7089538574219</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>2025/11/11</t>
         </is>
       </c>
+      <c r="L11" t="n">
+        <v>979.3999999999999</v>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>-442.3502502441406</v>
+        <v>-59.1363525390625</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>1590</v>
+        <v>1550</v>
       </c>
       <c r="S11" s="21" t="inlineStr">
         <is>
@@ -5450,15 +5462,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>319.8376159667969</v>
+        <v>326.3150939941406</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>208.3529510498047</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -5466,28 +5478,31 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>369.3353576660156</v>
+        <v>435.1638488769531</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>2025/11/10</t>
         </is>
       </c>
+      <c r="L12" t="n">
+        <v>977.8</v>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>-442.437744140625</v>
+        <v>-58.62915802001953</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>1500</v>
+        <v>1530</v>
       </c>
       <c r="S12" s="21" t="inlineStr">
         <is>
@@ -5513,15 +5528,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>324.6175842285156</v>
+        <v>329.1044006347656</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>208.3529510498047</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -5529,7 +5544,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>349.9866333007812</v>
+        <v>415.1928405761719</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -5537,23 +5552,23 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>885.6</v>
+        <v>960.5999999999999</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>-441.8414916992188</v>
+        <v>-58.5501708984375</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>1420</v>
+        <v>1590</v>
       </c>
       <c r="S13" s="21" t="inlineStr">
         <is>
@@ -5579,15 +5594,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>321.8382263183594</v>
+        <v>327.5936584472656</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>208.5416564941406</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -5595,7 +5610,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>341.6394653320312</v>
+        <v>406.8485107421875</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -5603,23 +5618,23 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>874.4000000000001</v>
+        <v>950.7</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>-439.6579895019531</v>
+        <v>-57.79105377197266</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1420</v>
+        <v>1500</v>
       </c>
       <c r="S14" s="21" t="inlineStr">
         <is>
@@ -5645,15 +5660,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>321.6234130859375</v>
+        <v>325.3190002441406</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>208.5416564941406</v>
+        <v>216.3333587646484</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -5661,7 +5676,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>340.7655639648438</v>
+        <v>405.9747924804688</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -5669,23 +5684,23 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>873.4000000000001</v>
+        <v>947.5999999999999</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>-441.9868469238281</v>
+        <v>-55.62704849243164</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>1470</v>
+        <v>1420</v>
       </c>
       <c r="S15" s="21" t="inlineStr">
         <is>
@@ -5711,15 +5726,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>317.4079895019531</v>
+        <v>317.0618896484375</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>206.1955108642578</v>
+        <v>214.6031341552734</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -5727,7 +5742,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>350.1035461425781</v>
+        <v>415.3125</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -5735,23 +5750,23 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>878.5</v>
+        <v>948.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>-443.6009826660156</v>
+        <v>-57.97686004638672</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>1470</v>
+        <v>1420</v>
       </c>
       <c r="S16" s="21" t="inlineStr">
         <is>
@@ -5777,15 +5792,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>314.779052734375</v>
+        <v>316.3506774902344</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>208.4487609863281</v>
+        <v>214.6031341552734</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -5793,7 +5808,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>357.9947204589844</v>
+        <v>423.2054748535156</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -5801,19 +5816,19 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>883.8</v>
+        <v>955.8999999999999</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>-447.5034790039062</v>
+        <v>-59.65876007080078</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -5843,15 +5858,15 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>300.6927185058594</v>
+        <v>300.6024780273438</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025/10/19</t>
+          <t>2025/10/25</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>211.2164306640625</v>
+        <v>214.6455078125</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -5859,7 +5874,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>357.4553527832031</v>
+        <v>422.6660766601562</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -5867,19 +5882,19 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>869.2</v>
+        <v>939.5999999999999</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>-447.1903381347656</v>
+        <v>-63.63986206054688</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -5909,15 +5924,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>300.4859924316406</v>
+        <v>301.3347778320312</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025/10/18</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>210.3064422607422</v>
+        <v>214.6455078125</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -5925,7 +5940,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>368.1218566894531</v>
+        <v>433.0473937988281</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -5933,23 +5948,23 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>879.6</v>
+        <v>950.5999999999999</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>-445.5643005371094</v>
+        <v>-63.34091949462891</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>1500</v>
+        <v>1470</v>
       </c>
       <c r="S19" s="21" t="inlineStr">
         <is>
@@ -5975,15 +5990,15 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>301.4379272460938</v>
+        <v>305.041748046875</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>241.5012664794922</v>
+        <v>214.6455078125</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -5991,7 +6006,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>366.7919921875</v>
+        <v>431.7176818847656</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -5999,23 +6014,23 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>876.3000000000001</v>
+        <v>953</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>-447.501708984375</v>
+        <v>-61.685546875</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>1450</v>
+        <v>1470</v>
       </c>
       <c r="S20" s="21" t="inlineStr">
         <is>
@@ -6041,15 +6056,15 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>298.0993347167969</v>
+        <v>299.1171569824219</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>236.9294738769531</v>
+        <v>214.6455078125</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -6057,7 +6072,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>362.9602661132812</v>
+        <v>427.8859558105469</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -6065,23 +6080,23 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>869.2</v>
+        <v>941.6</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>-446.3974609375</v>
+        <v>-63.59132385253906</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="S21" s="21" t="inlineStr">
         <is>
@@ -6107,15 +6122,15 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>292.8843994140625</v>
+        <v>294.4943542480469</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>229.3465118408203</v>
+        <v>214.9505767822266</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -6123,7 +6138,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>366.7919921875</v>
+        <v>431.7176818847656</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -6131,23 +6146,23 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>868.1</v>
+        <v>940.8000000000001</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>-448.114990234375</v>
+        <v>-62.46793365478516</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="S22" s="21" t="inlineStr">
         <is>
@@ -6177,11 +6192,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>229.0990753173828</v>
+        <v>223.5077209472656</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -6197,23 +6212,23 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>854.942</v>
+        <v>870.6420000000001</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>-448.115</v>
+        <v>-437.857</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>1180</v>
+        <v>1300</v>
       </c>
       <c r="S23" s="21" t="inlineStr">
         <is>
@@ -6243,11 +6258,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>214.7726135253906</v>
+          <t>2025/10/19</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>228.2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -6263,23 +6278,23 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>875.184</v>
+        <v>890.884</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>-448.115</v>
+        <v>-398.115</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="S24" s="21" t="inlineStr">
         <is>
@@ -6333,7 +6348,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -6341,11 +6356,11 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="S25" s="21" t="inlineStr">
         <is>
@@ -6399,7 +6414,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -6407,7 +6422,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -6465,7 +6480,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -6473,11 +6488,11 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="S27" s="21" t="inlineStr">
         <is>
@@ -6531,19 +6546,19 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>-454.9488</v>
+        <v>-448.115</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="S28" s="21" t="inlineStr">
         <is>
@@ -6597,7 +6612,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -6605,11 +6620,11 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>1230</v>
+        <v>1180</v>
       </c>
       <c r="S29" s="21" t="inlineStr">
         <is>
@@ -6663,7 +6678,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -6671,11 +6686,11 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>1250</v>
+        <v>1180</v>
       </c>
       <c r="S30" s="21" t="inlineStr">
         <is>
@@ -6729,7 +6744,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -6737,11 +6752,11 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>1270</v>
+        <v>1230</v>
       </c>
       <c r="S31" s="21" t="inlineStr">
         <is>
@@ -6795,7 +6810,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2025/10/11</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -6803,11 +6818,11 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="S32" s="21" t="inlineStr">
         <is>
@@ -6861,7 +6876,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/11</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -6869,11 +6884,11 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>1330</v>
+        <v>1270</v>
       </c>
       <c r="S33" s="21" t="inlineStr">
         <is>
@@ -6927,19 +6942,19 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>-465.3781</v>
+        <v>-454.9488</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="S34" s="21" t="inlineStr">
         <is>
@@ -6993,19 +7008,19 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>-413.4985</v>
+        <v>-465.3781</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>1280</v>
+        <v>1330</v>
       </c>
       <c r="S35" s="21" t="inlineStr">
         <is>
@@ -7059,7 +7074,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -7067,11 +7082,11 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>1270</v>
+        <v>1320</v>
       </c>
       <c r="S36" s="21" t="inlineStr">
         <is>
@@ -7125,7 +7140,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2025/09/28</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -7133,7 +7148,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -7191,7 +7206,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/28</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7199,11 +7214,11 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>1300</v>
+        <v>1270</v>
       </c>
       <c r="S38" s="21" t="inlineStr">
         <is>
@@ -7257,19 +7272,19 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>-328.9922</v>
+        <v>-413.4985</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>1320</v>
+        <v>1280</v>
       </c>
       <c r="S39" s="21" t="inlineStr">
         <is>
@@ -7323,19 +7338,19 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>-338.9922</v>
+        <v>-328.9922</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="S40" s="21" t="inlineStr">
         <is>
@@ -7389,19 +7404,19 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>-418.9922</v>
+        <v>-338.9922</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="S41" s="21" t="inlineStr">
         <is>
@@ -7455,7 +7470,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -7463,11 +7478,11 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="S42" s="21" t="inlineStr">
         <is>
@@ -7521,7 +7536,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -7529,7 +7544,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -7587,19 +7602,19 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>-395.5774</v>
+        <v>-418.9922</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="S44" s="21" t="inlineStr">
         <is>
@@ -7653,7 +7668,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -7661,11 +7676,11 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="S45" s="21" t="inlineStr">
         <is>
@@ -7719,19 +7734,19 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>-475.5774</v>
+        <v>-395.5774</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>1450</v>
+        <v>1420</v>
       </c>
       <c r="S46" s="21" t="inlineStr">
         <is>
@@ -7785,7 +7800,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -7793,11 +7808,11 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>1540</v>
+        <v>1420</v>
       </c>
       <c r="S47" s="21" t="inlineStr">
         <is>
@@ -7851,7 +7866,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -7859,11 +7874,11 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="S48" s="21" t="inlineStr">
         <is>
@@ -7917,19 +7932,19 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>-439.0749</v>
+        <v>-475.5774</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="S49" s="21" t="inlineStr">
         <is>
@@ -7983,7 +7998,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -7991,11 +8006,11 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="S50" s="21" t="inlineStr">
         <is>
@@ -8049,7 +8064,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -8057,11 +8072,11 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>1580</v>
+        <v>1560</v>
       </c>
       <c r="S51" s="21" t="inlineStr">
         <is>
@@ -8115,7 +8130,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -8123,11 +8138,11 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>1630</v>
+        <v>1560</v>
       </c>
       <c r="S52" s="21" t="inlineStr">
         <is>
@@ -8181,7 +8196,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -8189,11 +8204,11 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>1650</v>
+        <v>1580</v>
       </c>
       <c r="S53" s="21" t="inlineStr">
         <is>
@@ -8247,19 +8262,19 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>-400.575</v>
+        <v>-439.0749</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>1650</v>
+        <v>1630</v>
       </c>
       <c r="S54" s="21" t="inlineStr">
         <is>
@@ -8313,19 +8328,19 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>-380.575</v>
+        <v>-400.575</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>1730</v>
+        <v>1650</v>
       </c>
       <c r="S55" s="21" t="inlineStr">
         <is>
@@ -8379,7 +8394,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -8387,11 +8402,11 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>1800</v>
+        <v>1650</v>
       </c>
       <c r="S56" s="21" t="inlineStr">
         <is>
@@ -8445,19 +8460,19 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>-360.575</v>
+        <v>-380.575</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>1800</v>
+        <v>1730</v>
       </c>
       <c r="S57" s="21" t="inlineStr">
         <is>
@@ -8511,7 +8526,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -8519,11 +8534,11 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>1730</v>
+        <v>1800</v>
       </c>
       <c r="S58" s="21" t="inlineStr">
         <is>
@@ -8577,19 +8592,19 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>-404.2477</v>
+        <v>-360.575</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>1680</v>
+        <v>1800</v>
       </c>
       <c r="S59" s="21" t="inlineStr">
         <is>
@@ -8643,7 +8658,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -8651,11 +8666,11 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>1660</v>
+        <v>1730</v>
       </c>
       <c r="S60" s="21" t="inlineStr">
         <is>
@@ -8709,7 +8724,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -8717,11 +8732,11 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="S61" s="21" t="inlineStr">
         <is>
@@ -8775,7 +8790,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -8783,11 +8798,11 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="S62" s="21" t="inlineStr">
         <is>
@@ -8841,7 +8856,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -8849,7 +8864,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="Q63" t="n">
@@ -8907,19 +8922,19 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>-452.4556</v>
+        <v>-404.2477</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>1750</v>
+        <v>1680</v>
       </c>
       <c r="S64" s="21" t="inlineStr">
         <is>
@@ -8973,7 +8988,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -8981,11 +8996,11 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="S65" s="21" t="inlineStr">
         <is>
@@ -9039,7 +9054,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -9047,11 +9062,11 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/16</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="S66" s="21" t="inlineStr">
         <is>
@@ -9105,7 +9120,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -9113,11 +9128,11 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="S67" s="21" t="inlineStr">
         <is>
@@ -9171,7 +9186,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -9179,11 +9194,11 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>1920</v>
+        <v>1850</v>
       </c>
       <c r="S68" s="21" t="inlineStr">
         <is>
@@ -9237,19 +9252,19 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>-428.1337</v>
+        <v>-452.4556</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="S69" s="21" t="inlineStr">
         <is>
@@ -9303,7 +9318,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -9311,7 +9326,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="Q70" t="n">
@@ -9369,7 +9384,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -9377,11 +9392,11 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2024/06/28</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="S71" s="21" t="inlineStr">
         <is>
@@ -9435,7 +9450,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -9443,11 +9458,11 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="S72" s="21" t="inlineStr">
         <is>
@@ -9501,7 +9516,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -9509,7 +9524,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="Q73" t="n">
@@ -9567,19 +9582,19 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>-378.3393</v>
+        <v>-428.1337</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="S74" s="21" t="inlineStr">
         <is>
@@ -9633,7 +9648,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -9641,11 +9656,11 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="S75" s="21" t="inlineStr">
         <is>
@@ -9699,7 +9714,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -9707,11 +9722,11 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="S76" s="21" t="inlineStr">
         <is>
@@ -9765,7 +9780,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -9773,11 +9788,11 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="S77" s="21" t="inlineStr">
         <is>
@@ -9831,7 +9846,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -9839,11 +9854,11 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="S78" s="21" t="inlineStr">
         <is>
@@ -9897,19 +9912,19 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>-257.6054</v>
+        <v>-378.3393</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>2030</v>
+        <v>1950</v>
       </c>
       <c r="S79" s="21" t="inlineStr">
         <is>
@@ -9963,19 +9978,19 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>-307.6054</v>
+        <v>-257.6054</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>1750</v>
+        <v>2050</v>
       </c>
       <c r="S80" s="21" t="inlineStr">
         <is>
@@ -10029,7 +10044,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -10037,11 +10052,11 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>1750</v>
+        <v>2030</v>
       </c>
       <c r="S81" s="21" t="inlineStr">
         <is>
@@ -10095,7 +10110,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -10103,11 +10118,11 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2024/03/29</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="S82" s="21" t="inlineStr">
         <is>
@@ -10161,7 +10176,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -10169,11 +10184,11 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="S83" s="21" t="inlineStr">
         <is>
@@ -10227,19 +10242,19 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>-119.016</v>
+        <v>-307.6054</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/29</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="S84" s="21" t="inlineStr">
         <is>
@@ -10293,19 +10308,19 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>-139.016</v>
+        <v>-119.016</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>2100</v>
+        <v>1850</v>
       </c>
       <c r="S85" s="21" t="inlineStr">
         <is>
@@ -10359,19 +10374,19 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>-199.016</v>
+        <v>-139.016</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>2350</v>
+        <v>2000</v>
       </c>
       <c r="S86" s="21" t="inlineStr">
         <is>
@@ -10425,19 +10440,19 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>-219.016</v>
+        <v>-199.016</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="S87" s="21" t="inlineStr">
         <is>
@@ -10491,7 +10506,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -10499,11 +10514,11 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>2500</v>
+        <v>2350</v>
       </c>
       <c r="S88" s="21" t="inlineStr">
         <is>
@@ -10557,19 +10572,19 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>-122.2743</v>
+        <v>-219.016</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>2500</v>
+        <v>2450</v>
       </c>
       <c r="S89" s="21" t="inlineStr">
         <is>
@@ -10623,7 +10638,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -10631,7 +10646,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="Q90" t="n">
@@ -10689,15 +10704,15 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>-162.2743</v>
+        <v>-122.2743</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="Q91" t="n">
@@ -10755,19 +10770,19 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>-202.2743</v>
+        <v>-162.2743</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="S92" s="21" t="inlineStr">
         <is>
@@ -10821,19 +10836,19 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>-222.2743</v>
+        <v>-202.2743</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="S93" s="21" t="inlineStr">
         <is>
@@ -10887,19 +10902,19 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>-175.0205</v>
+        <v>-222.2743</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/12</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>2650</v>
+        <v>2450</v>
       </c>
       <c r="S94" s="21" t="inlineStr">
         <is>
@@ -10953,7 +10968,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -10961,11 +10976,11 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="S95" s="21" t="inlineStr">
         <is>
@@ -11019,19 +11034,19 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>-195.0205</v>
+        <v>-175.0205</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="S96" s="21" t="inlineStr">
         <is>
@@ -11085,7 +11100,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="N97" t="n">
@@ -11093,11 +11108,11 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2023/12/22</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>2550</v>
+        <v>2650</v>
       </c>
       <c r="S97" s="21" t="inlineStr">
         <is>
@@ -11151,7 +11166,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -11159,11 +11174,11 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="S98" s="21" t="inlineStr">
         <is>
@@ -11217,19 +11232,19 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>-112.4894</v>
+        <v>-195.0205</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/12/08</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>2500</v>
+        <v>2550</v>
       </c>
       <c r="S99" s="21" t="inlineStr">
         <is>
@@ -11283,7 +11298,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="N100" t="n">
@@ -11291,11 +11306,11 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="S100" s="21" t="inlineStr">
         <is>
@@ -11349,19 +11364,19 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>-122.4894</v>
+        <v>-112.4894</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="S101" s="21" t="inlineStr">
         <is>
@@ -11415,7 +11430,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="N102" t="n">
@@ -11423,11 +11438,11 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>2250</v>
+        <v>2450</v>
       </c>
       <c r="S102" s="21" t="inlineStr">
         <is>
@@ -11481,7 +11496,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="N103" t="n">
@@ -11489,11 +11504,11 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2023/10/27</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="S103" s="21" t="inlineStr">
         <is>
@@ -11547,15 +11562,15 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>-2.8669</v>
+        <v>-122.4894</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/03</t>
         </is>
       </c>
       <c r="Q104" t="n">
@@ -11613,7 +11628,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="N105" t="n">
@@ -11621,11 +11636,11 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/10/27</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="S105" s="21" t="inlineStr">
         <is>
@@ -11679,7 +11694,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="N106" t="n">
@@ -11687,11 +11702,11 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2023/09/22</t>
+          <t>2023/10/20</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>2150</v>
+        <v>2250</v>
       </c>
       <c r="S106" s="21" t="inlineStr">
         <is>
@@ -11745,7 +11760,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="N107" t="n">
@@ -11753,11 +11768,11 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/10/13</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>2100</v>
+        <v>2350</v>
       </c>
       <c r="S107" s="21" t="inlineStr">
         <is>
@@ -11811,7 +11826,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="N108" t="n">
@@ -11819,11 +11834,11 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2023/09/08</t>
+          <t>2023/09/22</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>2100</v>
+        <v>2150</v>
       </c>
       <c r="S108" s="21" t="inlineStr">
         <is>
@@ -11877,19 +11892,19 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>-24.4558</v>
+        <v>-2.8669</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2023/09/01</t>
+          <t>2023/09/15</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="S109" s="21" t="inlineStr">
         <is>
@@ -11943,7 +11958,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -11951,11 +11966,11 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2023/08/25</t>
+          <t>2023/09/08</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="S110" s="21" t="inlineStr">
         <is>
@@ -12009,7 +12024,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="N111" t="n">
@@ -12017,7 +12032,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/09/01</t>
         </is>
       </c>
       <c r="Q111" t="n">
@@ -12075,7 +12090,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="N112" t="n">
@@ -12083,11 +12098,11 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2023/08/11</t>
+          <t>2023/08/25</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="S112" s="21" t="inlineStr">
         <is>
@@ -12141,7 +12156,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -12149,11 +12164,11 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/08/18</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="S113" s="21" t="inlineStr">
         <is>
@@ -12207,19 +12222,19 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>-43.9596</v>
+        <v>-24.4558</v>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2023/07/28</t>
+          <t>2023/08/11</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="S114" s="21" t="inlineStr">
         <is>
@@ -12273,7 +12288,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -12281,11 +12296,11 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2023/07/21</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="S115" s="21" t="inlineStr">
         <is>
@@ -12339,7 +12354,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -12347,11 +12362,11 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023/07/28</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="S116" s="21" t="inlineStr">
         <is>
@@ -12405,19 +12420,19 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>-33.9596</v>
+        <v>-43.9596</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2023/07/07</t>
+          <t>2023/07/21</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="S117" s="21" t="inlineStr">
         <is>
@@ -12471,7 +12486,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="N118" t="n">
@@ -12479,11 +12494,11 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2023/06/30</t>
+          <t>2023/07/14</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="S118" s="21" t="inlineStr">
         <is>
@@ -12537,19 +12552,19 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>-91.9136</v>
+        <v>-33.9596</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2023/06/16</t>
+          <t>2023/07/07</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S119" s="21" t="inlineStr">
         <is>
@@ -12603,7 +12618,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="N120" t="n">
@@ -12611,11 +12626,11 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2023/06/09</t>
+          <t>2023/06/30</t>
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S120" s="21" t="inlineStr">
         <is>
@@ -12669,7 +12684,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="N121" t="n">
@@ -12677,11 +12692,11 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2023/06/02</t>
+          <t>2023/06/16</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="S121" s="21" t="inlineStr">
         <is>
@@ -12735,7 +12750,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="N122" t="n">
@@ -12743,11 +12758,11 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2023/05/26</t>
+          <t>2023/06/09</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="S122" s="21" t="inlineStr">
         <is>
@@ -12801,15 +12816,15 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>-137.8073</v>
+        <v>-91.9136</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2023/05/19</t>
+          <t>2023/06/02</t>
         </is>
       </c>
       <c r="Q123" t="n">
@@ -12867,7 +12882,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="N124" t="n">
@@ -12875,11 +12890,11 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2023/05/12</t>
+          <t>2023/05/26</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>1650</v>
+        <v>1680</v>
       </c>
       <c r="S124" s="21" t="inlineStr">
         <is>
@@ -12933,7 +12948,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="N125" t="n">
@@ -12941,11 +12956,11 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2023/05/05</t>
+          <t>2023/05/19</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>1700</v>
+        <v>1650</v>
       </c>
       <c r="S125" s="21" t="inlineStr">
         <is>
@@ -12999,19 +13014,19 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>-107.8073</v>
+        <v>-137.8073</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2023/04/28</t>
+          <t>2023/05/12</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>1800</v>
+        <v>1650</v>
       </c>
       <c r="S126" s="21" t="inlineStr">
         <is>
@@ -13065,7 +13080,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="N127" t="n">
@@ -13073,11 +13088,11 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2023/04/21</t>
+          <t>2023/05/05</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>1950</v>
+        <v>1700</v>
       </c>
       <c r="S127" s="21" t="inlineStr">
         <is>
@@ -13131,19 +13146,19 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>-185.8109</v>
+        <v>-107.8073</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2023/04/14</t>
+          <t>2023/04/28</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="S128" s="21" t="inlineStr">
         <is>
@@ -13197,7 +13212,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="N129" t="n">
@@ -13205,11 +13220,11 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2023/04/07</t>
+          <t>2023/04/21</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>2200</v>
+        <v>1950</v>
       </c>
       <c r="S129" s="21" t="inlineStr">
         <is>
@@ -13263,7 +13278,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="N130" t="n">
@@ -13271,11 +13286,11 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2023/03/31</t>
+          <t>2023/04/14</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="S130" s="21" t="inlineStr">
         <is>
@@ -13329,19 +13344,19 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>-165.8109</v>
+        <v>-185.8109</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2023/03/24</t>
+          <t>2023/04/07</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>2450</v>
+        <v>2200</v>
       </c>
       <c r="S131" s="21" t="inlineStr">
         <is>
@@ -13395,7 +13410,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="N132" t="n">
@@ -13403,11 +13418,11 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2023/03/17</t>
+          <t>2023/03/31</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="S132" s="21" t="inlineStr">
         <is>
@@ -13461,19 +13476,19 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>-242.5541</v>
+        <v>-165.8109</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2023/03/10</t>
+          <t>2023/03/24</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="S133" s="21" t="inlineStr">
         <is>
@@ -13527,7 +13542,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="N134" t="n">
@@ -13535,11 +13550,11 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2023/03/03</t>
+          <t>2023/03/17</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="S134" s="21" t="inlineStr">
         <is>
@@ -13593,19 +13608,19 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>-222.5541</v>
+        <v>-242.5541</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2023/02/24</t>
+          <t>2023/03/10</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="S135" s="21" t="inlineStr">
         <is>
@@ -13659,7 +13674,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="N136" t="n">
@@ -13667,11 +13682,11 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2023/02/17</t>
+          <t>2023/03/03</t>
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="S136" s="21" t="inlineStr">
         <is>
@@ -13725,7 +13740,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="N137" t="n">
@@ -13733,11 +13748,11 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2023/02/10</t>
+          <t>2023/02/24</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="S137" s="21" t="inlineStr">
         <is>
@@ -13791,15 +13806,15 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>-264.9204</v>
+        <v>-222.5541</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2023/02/03</t>
+          <t>2023/02/17</t>
         </is>
       </c>
       <c r="Q138" t="n">
@@ -13857,19 +13872,19 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>-254.9204</v>
+        <v>-264.9204</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2023/01/20</t>
+          <t>2023/02/10</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="S139" s="21" t="inlineStr">
         <is>
@@ -13923,7 +13938,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="N140" t="n">
@@ -13931,11 +13946,11 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2023/01/13</t>
+          <t>2023/02/03</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="S140" s="21" t="inlineStr">
         <is>
@@ -13981,19 +13996,19 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>-248.7332</v>
+        <v>-254.9204</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2023/01/06</t>
+          <t>2023/01/20</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="S141" s="21" t="inlineStr">
         <is>
@@ -14039,12 +14054,20 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="N142" t="n">
         <v>-248.7332</v>
       </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>2023/01/13</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2500</v>
+      </c>
       <c r="S142" s="21" t="inlineStr">
         <is>
           <t>2025/04/15</t>
@@ -14089,12 +14112,20 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="N143" t="n">
         <v>-248.7332</v>
       </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>2023/01/06</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2550</v>
+      </c>
       <c r="S143" s="21" t="inlineStr">
         <is>
           <t>2025/04/14</t>
@@ -14139,7 +14170,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2025/04/27</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="N144" t="n">
@@ -14189,7 +14220,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/27</t>
         </is>
       </c>
       <c r="N145" t="n">
@@ -14239,11 +14270,11 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>-276.491</v>
+        <v>-248.7332</v>
       </c>
       <c r="S146" s="21" t="inlineStr">
         <is>
@@ -14289,7 +14320,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="N147" t="n">
@@ -14331,11 +14362,11 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>-246.491</v>
+        <v>-276.491</v>
       </c>
       <c r="S148" s="21" t="inlineStr">
         <is>
@@ -14373,7 +14404,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="N149" t="n">
@@ -14415,7 +14446,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="N150" t="n">
@@ -14457,11 +14488,11 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>-229.2175</v>
+        <v>-246.491</v>
       </c>
       <c r="S151" s="21" t="inlineStr">
         <is>
@@ -14499,7 +14530,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="N152" t="n">
@@ -14541,7 +14572,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="N153" t="n">
@@ -14583,11 +14614,11 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>-239.2175</v>
+        <v>-229.2175</v>
       </c>
       <c r="S154" s="21" t="inlineStr">
         <is>
@@ -14625,7 +14656,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="N155" t="n">
@@ -14667,11 +14698,11 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>-246.9413</v>
+        <v>-239.2175</v>
       </c>
       <c r="S156" s="21" t="inlineStr">
         <is>
@@ -14709,7 +14740,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="N157" t="n">
@@ -14751,11 +14782,11 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>-266.9413</v>
+        <v>-246.9413</v>
       </c>
       <c r="S158" s="21" t="inlineStr">
         <is>
@@ -14793,11 +14824,11 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>-276.9413</v>
+        <v>-266.9413</v>
       </c>
       <c r="S159" s="21" t="inlineStr">
         <is>
@@ -14835,11 +14866,11 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>-200.7046</v>
+        <v>-276.9413</v>
       </c>
       <c r="S160" s="21" t="inlineStr">
         <is>
@@ -14877,7 +14908,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="N161" t="n">
@@ -14919,11 +14950,11 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>-210.7046</v>
+        <v>-200.7046</v>
       </c>
       <c r="S162" s="21" t="inlineStr">
         <is>
@@ -14961,7 +14992,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="N163" t="n">
@@ -15003,7 +15034,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="N164" t="n">
@@ -15045,11 +15076,11 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>-193.7676</v>
+        <v>-210.7046</v>
       </c>
       <c r="S165" s="21" t="inlineStr">
         <is>
@@ -15087,7 +15118,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="N166" t="n">
@@ -15129,7 +15160,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="N167" t="n">
@@ -15163,7 +15194,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="N168" t="n">
@@ -15197,7 +15228,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="N169" t="n">
@@ -15223,11 +15254,11 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>-159.7978</v>
+        <v>-193.7676</v>
       </c>
       <c r="S170" s="21" t="inlineStr">
         <is>
@@ -15249,7 +15280,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="N171" t="n">
@@ -15275,7 +15306,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="N172" t="n">
@@ -15301,11 +15332,11 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>-149.7978</v>
+        <v>-159.7978</v>
       </c>
       <c r="S173" s="21" t="inlineStr">
         <is>
@@ -15327,7 +15358,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="N174" t="n">
@@ -15353,11 +15384,11 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>-161.5477</v>
+        <v>-149.7978</v>
       </c>
       <c r="S175" s="21" t="inlineStr">
         <is>
@@ -15379,7 +15410,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="N176" t="n">
@@ -15405,11 +15436,11 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>-151.5477</v>
+        <v>-161.5477</v>
       </c>
       <c r="S177" s="21" t="inlineStr">
         <is>
@@ -15431,7 +15462,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="N178" t="n">
@@ -15457,7 +15488,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="N179" t="n">
@@ -15483,11 +15514,11 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>-54.7431</v>
+        <v>-151.5477</v>
       </c>
       <c r="S180" s="21" t="inlineStr">
         <is>
@@ -15509,7 +15540,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="N181" t="n">
@@ -15535,11 +15566,11 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>-34.7431</v>
+        <v>-54.7431</v>
       </c>
       <c r="S182" s="21" t="inlineStr">
         <is>
@@ -15561,7 +15592,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="N183" t="n">
@@ -15587,7 +15618,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="N184" t="n">
@@ -15613,11 +15644,11 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>-49.6959</v>
+        <v>-34.7431</v>
       </c>
       <c r="S185" s="21" t="inlineStr">
         <is>
@@ -15639,7 +15670,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="N186" t="n">
@@ -15665,7 +15696,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="N187" t="n">
@@ -15691,7 +15722,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="N188" t="n">
@@ -15717,11 +15748,11 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>-29.6959</v>
+        <v>-49.6959</v>
       </c>
       <c r="S189" s="21" t="inlineStr">
         <is>
@@ -15743,11 +15774,11 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>12.5134</v>
+        <v>-29.6959</v>
       </c>
       <c r="S190" s="21" t="inlineStr">
         <is>
@@ -15769,7 +15800,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="N191" t="n">
@@ -15795,7 +15826,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="N192" t="n">
@@ -15821,11 +15852,11 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>32.5134</v>
+        <v>12.5134</v>
       </c>
       <c r="S193" s="21" t="inlineStr">
         <is>
@@ -15847,11 +15878,11 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>52.5134</v>
+        <v>32.5134</v>
       </c>
       <c r="S194" s="21" t="inlineStr">
         <is>
@@ -15873,11 +15904,11 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>76.5879</v>
+        <v>52.5134</v>
       </c>
       <c r="S195" s="21" t="inlineStr">
         <is>
@@ -15899,7 +15930,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="N196" t="n">
@@ -15925,7 +15956,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="N197" t="n">
@@ -15951,7 +15982,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="N198" t="n">
@@ -15977,7 +16008,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>2025/02/08</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="N199" t="n">
@@ -16003,7 +16034,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/08</t>
         </is>
       </c>
       <c r="N200" t="n">
@@ -16029,7 +16060,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="N201" t="n">
@@ -16055,7 +16086,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="N202" t="n">
@@ -16081,11 +16112,11 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>152.0667</v>
+        <v>76.5879</v>
       </c>
       <c r="S203" s="21" t="inlineStr">
         <is>
@@ -16107,7 +16138,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>2025/01/26</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="N204" t="n">
@@ -16133,7 +16164,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/01/26</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -16159,11 +16190,11 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>231.5585</v>
+        <v>152.0667</v>
       </c>
       <c r="S206" s="21" t="inlineStr">
         <is>
@@ -16185,7 +16216,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="N207" t="n">
@@ -16211,7 +16242,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="N208" t="n">
@@ -16237,7 +16268,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="N209" t="n">
@@ -16263,7 +16294,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="N210" t="n">
@@ -16289,11 +16320,11 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>191.5338</v>
+        <v>231.5585</v>
       </c>
       <c r="S211" s="21" t="inlineStr">
         <is>
@@ -16315,7 +16346,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="N212" t="n">
@@ -16341,7 +16372,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="N213" t="n">
@@ -16367,7 +16398,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="N214" t="n">
@@ -16393,11 +16424,11 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>211.5338</v>
+        <v>191.5338</v>
       </c>
       <c r="S215" s="21" t="inlineStr">
         <is>
@@ -16419,11 +16450,11 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>187.7734</v>
+        <v>211.5338</v>
       </c>
       <c r="S216" s="21" t="inlineStr">
         <is>
@@ -16445,7 +16476,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="N217" t="n">
@@ -16471,7 +16502,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="N218" t="n">
@@ -16497,7 +16528,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="N219" t="n">
@@ -16523,7 +16554,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="N220" t="n">
@@ -16549,11 +16580,11 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>140.3273</v>
+        <v>187.7734</v>
       </c>
       <c r="S221" s="21" t="inlineStr">
         <is>
@@ -16575,11 +16606,11 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>150.3273</v>
+        <v>140.3273</v>
       </c>
       <c r="S222" s="21" t="inlineStr">
         <is>
@@ -16601,11 +16632,11 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>170.3273</v>
+        <v>150.3273</v>
       </c>
       <c r="S223" s="21" t="inlineStr">
         <is>
@@ -16627,7 +16658,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="N224" t="n">
@@ -16653,11 +16684,11 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="N225" t="n">
-        <v>93.2189</v>
+        <v>170.3273</v>
       </c>
       <c r="S225" s="21" t="inlineStr">
         <is>
@@ -16679,11 +16710,11 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="N226" t="n">
-        <v>143.2189</v>
+        <v>93.2189</v>
       </c>
       <c r="S226" s="21" t="inlineStr">
         <is>
@@ -16705,7 +16736,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="N227" t="n">
@@ -16731,7 +16762,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="N228" t="n">
@@ -16757,11 +16788,11 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>183.2189</v>
+        <v>143.2189</v>
       </c>
       <c r="S229" s="21" t="inlineStr">
         <is>
@@ -16783,11 +16814,11 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>120.4273</v>
+        <v>183.2189</v>
       </c>
       <c r="S230" s="21" t="inlineStr">
         <is>
@@ -16809,11 +16840,11 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>130.4273</v>
+        <v>120.4273</v>
       </c>
       <c r="S231" s="21" t="inlineStr">
         <is>
@@ -16835,7 +16866,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="N232" t="n">
@@ -16861,7 +16892,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="N233" t="n">
@@ -16887,7 +16918,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="N234" t="n">
@@ -16913,11 +16944,11 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="N235" t="n">
-        <v>148.7204</v>
+        <v>130.4273</v>
       </c>
       <c r="S235" s="21" t="inlineStr">
         <is>
@@ -16931,7 +16962,7 @@
     <row r="236">
       <c r="M236" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="N236" t="n">
@@ -16949,7 +16980,7 @@
     <row r="237">
       <c r="M237" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="N237" t="n">
@@ -16967,7 +16998,7 @@
     <row r="238">
       <c r="M238" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="N238" t="n">
@@ -16985,7 +17016,7 @@
     <row r="239">
       <c r="M239" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="N239" t="n">
@@ -17003,11 +17034,11 @@
     <row r="240">
       <c r="M240" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="N240" t="n">
-        <v>129.4875</v>
+        <v>148.7204</v>
       </c>
       <c r="S240" s="21" t="inlineStr">
         <is>
@@ -17021,7 +17052,7 @@
     <row r="241">
       <c r="M241" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="N241" t="n">
@@ -17039,7 +17070,7 @@
     <row r="242">
       <c r="M242" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="N242" t="n">
@@ -17057,7 +17088,7 @@
     <row r="243">
       <c r="M243" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="N243" t="n">
@@ -17075,7 +17106,7 @@
     <row r="244">
       <c r="M244" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="N244" t="n">
@@ -17093,11 +17124,11 @@
     <row r="245">
       <c r="M245" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="N245" t="n">
-        <v>156.3343</v>
+        <v>129.4875</v>
       </c>
       <c r="S245" s="21" t="inlineStr">
         <is>
@@ -17111,11 +17142,11 @@
     <row r="246">
       <c r="M246" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="N246" t="n">
-        <v>176.3343</v>
+        <v>156.3343</v>
       </c>
       <c r="S246" s="21" t="inlineStr">
         <is>
@@ -17129,7 +17160,7 @@
     <row r="247">
       <c r="M247" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="N247" t="n">
@@ -17147,7 +17178,7 @@
     <row r="248">
       <c r="M248" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="N248" t="n">
@@ -17165,7 +17196,7 @@
     <row r="249">
       <c r="M249" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="N249" t="n">
@@ -17183,11 +17214,11 @@
     <row r="250">
       <c r="M250" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="N250" t="n">
-        <v>123.4143</v>
+        <v>176.3343</v>
       </c>
       <c r="S250" s="21" t="inlineStr">
         <is>
@@ -17201,7 +17232,7 @@
     <row r="251">
       <c r="M251" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="N251" t="n">
@@ -17219,11 +17250,11 @@
     <row r="252">
       <c r="M252" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="N252" t="n">
-        <v>143.4143</v>
+        <v>123.4143</v>
       </c>
       <c r="S252" s="21" t="inlineStr">
         <is>
@@ -17237,11 +17268,11 @@
     <row r="253">
       <c r="M253" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="N253" t="n">
-        <v>173.4143</v>
+        <v>143.4143</v>
       </c>
       <c r="S253" s="21" t="inlineStr">
         <is>
@@ -17255,7 +17286,7 @@
     <row r="254">
       <c r="M254" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="N254" t="n">
@@ -17273,11 +17304,11 @@
     <row r="255">
       <c r="M255" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="N255" t="n">
-        <v>75.8126</v>
+        <v>173.4143</v>
       </c>
       <c r="S255" s="21" t="inlineStr">
         <is>
@@ -17291,7 +17322,7 @@
     <row r="256">
       <c r="M256" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="N256" t="n">
@@ -17309,7 +17340,7 @@
     <row r="257">
       <c r="M257" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="N257" t="n">
@@ -17327,7 +17358,7 @@
     <row r="258">
       <c r="M258" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="N258" t="n">
@@ -17345,11 +17376,11 @@
     <row r="259">
       <c r="M259" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="N259" t="n">
-        <v>95.8126</v>
+        <v>75.8126</v>
       </c>
       <c r="S259" s="21" t="inlineStr">
         <is>
@@ -17363,11 +17394,11 @@
     <row r="260">
       <c r="M260" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="N260" t="n">
-        <v>73.6504</v>
+        <v>95.8126</v>
       </c>
       <c r="S260" s="21" t="inlineStr">
         <is>
@@ -17381,7 +17412,7 @@
     <row r="261">
       <c r="M261" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="N261" t="n">
@@ -17399,7 +17430,7 @@
     <row r="262">
       <c r="M262" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="N262" t="n">
@@ -17417,7 +17448,7 @@
     <row r="263">
       <c r="M263" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="N263" t="n">
@@ -17435,7 +17466,7 @@
     <row r="264">
       <c r="M264" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="N264" t="n">
@@ -17453,11 +17484,11 @@
     <row r="265">
       <c r="M265" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="N265" t="n">
-        <v>38.2631</v>
+        <v>73.6504</v>
       </c>
       <c r="S265" s="21" t="inlineStr">
         <is>
@@ -17471,11 +17502,11 @@
     <row r="266">
       <c r="M266" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="N266" t="n">
-        <v>88.26309999999999</v>
+        <v>38.2631</v>
       </c>
       <c r="S266" s="21" t="inlineStr">
         <is>
@@ -17489,7 +17520,7 @@
     <row r="267">
       <c r="M267" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="N267" t="n">
@@ -17507,11 +17538,11 @@
     <row r="268">
       <c r="M268" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="N268" t="n">
-        <v>118.2631</v>
+        <v>88.26309999999999</v>
       </c>
       <c r="S268" s="21" t="inlineStr">
         <is>
@@ -17525,7 +17556,7 @@
     <row r="269">
       <c r="M269" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="N269" t="n">
@@ -17543,11 +17574,11 @@
     <row r="270">
       <c r="M270" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="N270" t="n">
-        <v>62.6926</v>
+        <v>118.2631</v>
       </c>
       <c r="S270" s="21" t="inlineStr">
         <is>
@@ -17561,7 +17592,7 @@
     <row r="271">
       <c r="M271" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="N271" t="n">
@@ -17579,7 +17610,7 @@
     <row r="272">
       <c r="M272" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="N272" t="n">
@@ -17597,11 +17628,11 @@
     <row r="273">
       <c r="M273" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="N273" t="n">
-        <v>82.6926</v>
+        <v>62.6926</v>
       </c>
       <c r="S273" s="21" t="inlineStr">
         <is>
@@ -17615,11 +17646,11 @@
     <row r="274">
       <c r="M274" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="N274" t="n">
-        <v>132.6926</v>
+        <v>82.6926</v>
       </c>
       <c r="S274" s="21" t="inlineStr">
         <is>
@@ -17633,11 +17664,11 @@
     <row r="275">
       <c r="M275" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="N275" t="n">
-        <v>114.465</v>
+        <v>132.6926</v>
       </c>
       <c r="S275" s="21" t="inlineStr">
         <is>
@@ -17651,7 +17682,7 @@
     <row r="276">
       <c r="M276" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="N276" t="n">
@@ -17669,7 +17700,7 @@
     <row r="277">
       <c r="M277" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="N277" t="n">
@@ -17687,7 +17718,7 @@
     <row r="278">
       <c r="M278" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="N278" t="n">
@@ -17705,7 +17736,7 @@
     <row r="279">
       <c r="M279" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="N279" t="n">
@@ -17723,7 +17754,7 @@
     <row r="280">
       <c r="M280" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="N280" t="n">
@@ -17741,11 +17772,11 @@
     <row r="281">
       <c r="M281" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="N281" t="n">
-        <v>142.529</v>
+        <v>114.465</v>
       </c>
       <c r="S281" s="21" t="inlineStr">
         <is>
@@ -17759,7 +17790,7 @@
     <row r="282">
       <c r="M282" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="N282" t="n">
@@ -17777,7 +17808,7 @@
     <row r="283">
       <c r="M283" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="N283" t="n">
@@ -17795,11 +17826,11 @@
     <row r="284">
       <c r="M284" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>72.529</v>
+        <v>142.529</v>
       </c>
       <c r="S284" s="21" t="inlineStr">
         <is>
@@ -17813,7 +17844,7 @@
     <row r="285">
       <c r="M285" t="inlineStr">
         <is>
-          <t>2024/09/29</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="N285" t="n">
@@ -17831,7 +17862,7 @@
     <row r="286">
       <c r="M286" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/09/29</t>
         </is>
       </c>
       <c r="N286" t="n">
@@ -17849,11 +17880,11 @@
     <row r="287">
       <c r="M287" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>91.8797</v>
+        <v>72.529</v>
       </c>
       <c r="S287" s="21" t="inlineStr">
         <is>
@@ -17867,7 +17898,7 @@
     <row r="288">
       <c r="M288" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="N288" t="n">
@@ -17885,7 +17916,7 @@
     <row r="289">
       <c r="M289" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="N289" t="n">
@@ -17903,7 +17934,7 @@
     <row r="290">
       <c r="M290" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="N290" t="n">
@@ -17921,11 +17952,11 @@
     <row r="291">
       <c r="M291" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="N291" t="n">
-        <v>41.8797</v>
+        <v>91.8797</v>
       </c>
       <c r="S291" s="21" t="inlineStr">
         <is>
@@ -17939,11 +17970,11 @@
     <row r="292">
       <c r="M292" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="N292" t="n">
-        <v>61.4189</v>
+        <v>41.8797</v>
       </c>
       <c r="S292" s="21" t="inlineStr">
         <is>
@@ -17957,7 +17988,7 @@
     <row r="293">
       <c r="M293" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="N293" t="n">
@@ -17975,7 +18006,7 @@
     <row r="294">
       <c r="M294" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="N294" t="n">
@@ -17993,11 +18024,11 @@
     <row r="295">
       <c r="M295" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/14</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>41.4189</v>
+        <v>61.4189</v>
       </c>
       <c r="S295" s="21" t="inlineStr">
         <is>
@@ -18011,11 +18042,11 @@
     <row r="296">
       <c r="M296" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="N296" t="n">
-        <v>7.7279</v>
+        <v>41.4189</v>
       </c>
       <c r="S296" s="21" t="inlineStr">
         <is>
@@ -18029,11 +18060,11 @@
     <row r="297">
       <c r="M297" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>47.7279</v>
+        <v>7.7279</v>
       </c>
       <c r="S297" s="21" t="inlineStr">
         <is>
@@ -18047,7 +18078,7 @@
     <row r="298">
       <c r="M298" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="N298" t="n">
@@ -18065,7 +18096,7 @@
     <row r="299">
       <c r="M299" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="N299" t="n">
@@ -18083,7 +18114,7 @@
     <row r="300">
       <c r="M300" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="N300" t="n">
